--- a/data/mapping_product_group.xlsx
+++ b/data/mapping_product_group.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\SDSN Dropbox\Davide Cozza\SDSN Internship\GitHub\SOFA 2024\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Desktop\GitHub\Country_Snapshots\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AB9E90-DE3A-4F50-8AB3-0786DC9DD816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9B954C-5EAF-4A2F-9720-3D6544797511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="143">
   <si>
     <t>PRODUCT</t>
   </si>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t>Lprod_group</t>
+  </si>
+  <si>
+    <t>Fish, Body Oil</t>
   </si>
 </sst>
 </file>
@@ -545,13 +548,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,14 +837,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.6328125" customWidth="1"/>
-    <col min="2" max="3" width="25.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" customWidth="1"/>
     <col min="4" max="4" width="25.90625" customWidth="1"/>
     <col min="5" max="5" width="36.54296875" customWidth="1"/>
   </cols>
@@ -854,175 +862,171 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>126</v>
+      <c r="A9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>
@@ -1030,159 +1034,159 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>5</v>
@@ -1190,103 +1194,103 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>81</v>
+      <c r="A51" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>5</v>
@@ -1294,23 +1298,23 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>89</v>
@@ -1318,18 +1322,18 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -1342,114 +1346,114 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -1470,167 +1474,167 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>120</v>
+      <c r="A84" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>12</v>
@@ -1638,31 +1642,31 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>12</v>
@@ -1670,55 +1674,55 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>108</v>
@@ -1726,26 +1730,42 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>12</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B112" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B112">
+      <sortCondition ref="B1:B112"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768DE7D8-13FD-466D-B131-6189C6360FBC}">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.90625" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -2979,6 +2999,14 @@
         <v>134</v>
       </c>
     </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>142</v>
+      </c>
+      <c r="B113" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/mapping_product_group.xlsx
+++ b/data/mapping_product_group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Desktop\GitHub\Country_Snapshots\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9B954C-5EAF-4A2F-9720-3D6544797511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA004437-3810-48C9-BFD0-C085CBD51BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -548,15 +548,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -901,8 +900,12 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -913,16 +916,16 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>131</v>
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
@@ -930,7 +933,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -938,7 +941,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
@@ -946,7 +949,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
@@ -954,7 +957,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
@@ -962,7 +965,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
@@ -970,7 +973,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
@@ -978,15 +981,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
@@ -994,7 +997,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>8</v>
@@ -1002,7 +1005,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
@@ -1010,7 +1013,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
@@ -1018,7 +1021,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>8</v>
@@ -1026,7 +1029,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>
@@ -1034,7 +1037,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>8</v>
@@ -1042,7 +1045,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
@@ -1050,15 +1053,15 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>114</v>
@@ -1066,7 +1069,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>114</v>
@@ -1074,7 +1077,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>114</v>
@@ -1082,7 +1085,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>114</v>
@@ -1090,7 +1093,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>114</v>
@@ -1098,23 +1101,23 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>3</v>
@@ -1122,7 +1125,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>3</v>
@@ -1130,7 +1133,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>3</v>
@@ -1138,7 +1141,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>3</v>
@@ -1146,7 +1149,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>3</v>
@@ -1154,7 +1157,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>3</v>
@@ -1162,23 +1165,23 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>5</v>
@@ -1186,7 +1189,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>5</v>
@@ -1194,7 +1197,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>5</v>
@@ -1202,7 +1205,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>5</v>
@@ -1210,7 +1213,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>5</v>
@@ -1218,7 +1221,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>5</v>
@@ -1226,7 +1229,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>5</v>
@@ -1234,7 +1237,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>5</v>
@@ -1242,7 +1245,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>5</v>
@@ -1250,7 +1253,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>5</v>
@@ -1258,7 +1261,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>5</v>
@@ -1266,7 +1269,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>5</v>
@@ -1274,7 +1277,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>5</v>
@@ -1282,7 +1285,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>5</v>
@@ -1290,31 +1293,31 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>89</v>
@@ -1322,7 +1325,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>89</v>
@@ -1330,7 +1333,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>89</v>
@@ -1338,7 +1341,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>89</v>
@@ -1346,7 +1349,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>89</v>
@@ -1354,7 +1357,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>89</v>
@@ -1362,15 +1365,15 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>22</v>
@@ -1378,7 +1381,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>22</v>
@@ -1386,7 +1389,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>22</v>
@@ -1394,7 +1397,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>22</v>
@@ -1402,7 +1405,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>22</v>
@@ -1410,7 +1413,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>22</v>
@@ -1418,7 +1421,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>22</v>
@@ -1426,7 +1429,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>22</v>
@@ -1434,7 +1437,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>22</v>
@@ -1442,7 +1445,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>22</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>22</v>
@@ -1458,7 +1461,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>22</v>
@@ -1466,7 +1469,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>22</v>
@@ -1474,7 +1477,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>22</v>
@@ -1482,7 +1485,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>22</v>
@@ -1490,7 +1493,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>22</v>
@@ -1498,55 +1501,55 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>60</v>
+      <c r="A83" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
-        <v>81</v>
+      <c r="A84" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>70</v>
+      <c r="A86" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B87" s="5" t="s">
+      <c r="A87" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>112</v>
@@ -1554,7 +1557,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>112</v>
@@ -1562,15 +1565,15 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>10</v>
@@ -1578,7 +1581,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>10</v>
@@ -1586,7 +1589,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>10</v>
@@ -1594,7 +1597,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>10</v>
@@ -1602,15 +1605,15 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>74</v>
@@ -1618,7 +1621,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>74</v>
@@ -1626,15 +1629,15 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>12</v>
@@ -1642,7 +1645,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>12</v>
@@ -1650,7 +1653,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>12</v>
@@ -1658,7 +1661,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>12</v>
@@ -1666,15 +1669,15 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>58</v>
@@ -1682,7 +1685,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>58</v>
@@ -1690,7 +1693,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>58</v>
@@ -1698,15 +1701,15 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>108</v>
@@ -1714,40 +1717,32 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" s="2" t="s">
+      <c r="A110" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B111" s="5" t="s">
+      <c r="A111" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B112" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B112">
-      <sortCondition ref="B1:B112"/>
+  <autoFilter ref="A1:B111" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B111">
+      <sortCondition ref="B1:B111"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1758,7 +1753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768DE7D8-13FD-466D-B131-6189C6360FBC}">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
